--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>269621.6061164611</v>
+        <v>273314.2959381405</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6498286.039260892</v>
+        <v>6498286.039260893</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>4.151417595729786</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>403.2658873081456</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +749,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193206</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
         <v>105.9202115588047</v>
@@ -801,7 +803,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>174.5627220424963</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -820,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>136.1769805884545</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>70.36042284486109</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>113.2108378530838</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.77736672774364</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -984,7 +986,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193206</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
         <v>105.9202115588047</v>
@@ -993,7 +995,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>228.2601210751802</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -1117,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>268.0228637234263</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>267.1504594632804</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1145,13 +1147,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1269,7 +1271,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V9" t="n">
-        <v>211.5744117368965</v>
+        <v>211.5744117368968</v>
       </c>
       <c r="W9" t="n">
         <v>211.1008365810345</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>12.68843489334725</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>393.9470907639073</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>26.83517373844191</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I12" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>388.2474135039329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,7 +1621,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>244.2656330314546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I15" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>228.2601210751802</v>
+        <v>42.43741174507631</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>393.9470907639073</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1853,10 +1855,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>403.2658873081456</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2002,19 +2004,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>21.44088782360907</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>73.4691015436503</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>119.9137781239163</v>
       </c>
       <c r="V20" t="n">
-        <v>8.011266969175189</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="23">
@@ -2318,19 +2320,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>388.2474135039324</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>6.338580986754753</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2476,10 +2478,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>156.6355495128296</v>
+        <v>20.4654625889885</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -2494,7 +2496,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2557,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>388.2474135039324</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>164.1984369212203</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>266.2723283900668</v>
       </c>
       <c r="W28" t="n">
-        <v>182.9658461469753</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>392.5647472501403</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2846,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>3.497613144310962</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2855,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596193</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>180.6077930059088</v>
+        <v>27.35334490128979</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -3038,7 +3040,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>265.1159121960795</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>388.3430365919143</v>
       </c>
     </row>
     <row r="33">
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>65.42520756919141</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -3250,10 +3252,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>213.5952110672388</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>234.6081940498843</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>19.89843046228963</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I36" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>165.4216953850578</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,22 +3508,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>298.0721989747363</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>47.6079116470228</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3594,13 +3596,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>105.9202115588047</v>
+        <v>105.9202115588044</v>
       </c>
       <c r="H39" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I39" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>79.1152835847146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>61.89665907948903</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -3749,10 +3751,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>386.8650699901659</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3797,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>28.0149076090959</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>24.47250245706859</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
@@ -3952,16 +3954,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,13 +3991,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>81.39240572145881</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>80.44800110537372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>12.68843489334793</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>228.2601210751802</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.033101815613</v>
+        <v>1687.317608428192</v>
       </c>
       <c r="C2" t="n">
-        <v>1267.908511128883</v>
+        <v>1687.317608428192</v>
       </c>
       <c r="D2" t="n">
-        <v>863.4445812219433</v>
+        <v>1683.124257321394</v>
       </c>
       <c r="E2" t="n">
-        <v>449.10436573884</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4334,19 +4336,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>497.1688317915616</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.011766457887</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O2" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4373,7 +4375,7 @@
         <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.254281480102</v>
+        <v>1687.317608428192</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
         <v>240.2510026593071</v>
@@ -4407,25 +4409,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.227134123859</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M3" t="n">
-        <v>1541.851827451147</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N3" t="n">
-        <v>2058.694762117472</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.694762117472</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4452,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.259730306692</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="C4" t="n">
-        <v>201.259730306692</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960205</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1500.092848063724</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1500.092848063724</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1217.294700609848</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>943.4089555493697</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="W4" t="n">
-        <v>664.339291058244</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="X4" t="n">
-        <v>425.9954289179274</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.259730306692</v>
+        <v>777.1526093285881</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>970.7079878930531</v>
+        <v>492.6927300678241</v>
       </c>
       <c r="C5" t="n">
-        <v>560.5833972063232</v>
+        <v>492.6927300678241</v>
       </c>
       <c r="D5" t="n">
-        <v>156.1194672993837</v>
+        <v>492.6927300678241</v>
       </c>
       <c r="E5" t="n">
-        <v>41.76508562960205</v>
+        <v>492.6927300678241</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960205</v>
+        <v>492.6927300678241</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>83.96444596065624</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>83.96444596065624</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>216.5644706858345</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>733.4074053521598</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M5" t="n">
-        <v>1250.250340018485</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N5" t="n">
-        <v>1250.250340018485</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1380.929167557543</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1380.929167557543</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.929167557543</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="Y5" t="n">
-        <v>1380.929167557543</v>
+        <v>902.9139097323135</v>
       </c>
     </row>
     <row r="6">
@@ -4632,37 +4634,37 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>497.5713418949007</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M6" t="n">
-        <v>497.5713418949007</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="N6" t="n">
-        <v>675.1644281008383</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767164</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4747,25 +4749,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1340.598203386633</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1057.800055932758</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>783.9143108722797</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>504.844646381154</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X7" t="n">
-        <v>266.5007842408373</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y7" t="n">
         <v>41.76508562960205</v>
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1552.329808443156</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="C8" t="n">
-        <v>1281.599643065957</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="D8" t="n">
-        <v>877.1357131590178</v>
+        <v>1683.124257321394</v>
       </c>
       <c r="E8" t="n">
-        <v>462.7954976759145</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960205</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4808,22 +4810,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>497.1688317915616</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M8" t="n">
-        <v>1014.011766457887</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N8" t="n">
-        <v>1530.854701124212</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4844,10 +4846,10 @@
         <v>1952.973206274203</v>
       </c>
       <c r="X8" t="n">
-        <v>1552.329808443156</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y8" t="n">
-        <v>1552.329808443156</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
@@ -4884,22 +4886,22 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>751.4208778585605</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M9" t="n">
-        <v>1268.263812524886</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N9" t="n">
-        <v>1785.106747191211</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O9" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4917,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4990,19 +4992,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="V10" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="W10" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="X10" t="n">
-        <v>1543.534340936018</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="Y10" t="n">
         <v>1318.798642324783</v>
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>866.2298917994352</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C11" t="n">
-        <v>456.1053011127053</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="D11" t="n">
-        <v>456.1053011127053</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E11" t="n">
-        <v>41.76508562960205</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G11" t="n">
         <v>41.76508562960205</v>
@@ -5039,19 +5041,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K11" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L11" t="n">
-        <v>497.1688317915616</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.011766457887</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N11" t="n">
-        <v>1530.854701124212</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O11" t="n">
         <v>2047.697635790537</v>
@@ -5078,13 +5080,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W11" t="n">
-        <v>1704.493980615271</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X11" t="n">
-        <v>1677.387744515835</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y11" t="n">
-        <v>1276.451071463925</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5108,37 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G12" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936201</v>
+        <v>62.5136770093618</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J12" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>751.4208778585605</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.263812524886</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N12" t="n">
-        <v>1268.263812524886</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O12" t="n">
-        <v>1785.106747191211</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q12" t="n">
         <v>2088.254281480102</v>
@@ -5157,7 +5159,7 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>877.1357131590178</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C14" t="n">
-        <v>877.1357131590178</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D14" t="n">
-        <v>877.1357131590178</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E14" t="n">
-        <v>462.7954976759145</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F14" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G14" t="n">
         <v>41.76508562960205</v>
@@ -5276,19 +5278,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K14" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L14" t="n">
-        <v>1329.636426430007</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="M14" t="n">
-        <v>1846.479361096332</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N14" t="n">
-        <v>2047.697635790537</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O14" t="n">
         <v>2047.697635790537</v>
@@ -5303,25 +5305,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U14" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V14" t="n">
-        <v>1123.868675817053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W14" t="n">
-        <v>877.1357131590178</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X14" t="n">
-        <v>877.1357131590178</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y14" t="n">
-        <v>877.1357131590178</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="15">
@@ -5334,7 +5336,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D15" t="n">
         <v>469.7036984844747</v>
@@ -5343,37 +5345,37 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G15" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I15" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>537.7254774811266</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M15" t="n">
-        <v>1054.568412147452</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N15" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O15" t="n">
-        <v>2088.254281480102</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P15" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q15" t="n">
         <v>2088.254281480102</v>
@@ -5464,22 +5466,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1340.598203386633</v>
+        <v>1528.297909780678</v>
       </c>
       <c r="U16" t="n">
-        <v>1057.800055932758</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="V16" t="n">
-        <v>783.9143108722797</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W16" t="n">
-        <v>504.844646381154</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X16" t="n">
-        <v>266.5007842408373</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960205</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1678.033101815613</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C17" t="n">
-        <v>1267.908511128883</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="D17" t="n">
-        <v>863.4445812219433</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E17" t="n">
-        <v>449.10436573884</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G17" t="n">
         <v>41.76508562960205</v>
@@ -5519,19 +5521,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L17" t="n">
-        <v>176.0078249962696</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M17" t="n">
-        <v>176.0078249962696</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N17" t="n">
-        <v>692.8507596625949</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O17" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P17" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q17" t="n">
         <v>2047.697635790537</v>
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G18" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I18" t="n">
         <v>41.76508562960205</v>
@@ -5598,16 +5600,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L18" t="n">
-        <v>558.6080202959273</v>
+        <v>537.7254774811262</v>
       </c>
       <c r="M18" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N18" t="n">
-        <v>1075.450954962253</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O18" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P18" t="n">
         <v>2088.254281480102</v>
@@ -5628,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>401.7663115904321</v>
+        <v>436.3817591188274</v>
       </c>
       <c r="C19" t="n">
-        <v>230.6729391521486</v>
+        <v>436.3817591188274</v>
       </c>
       <c r="D19" t="n">
-        <v>230.6729391521486</v>
+        <v>276.8871144417374</v>
       </c>
       <c r="E19" t="n">
-        <v>230.6729391521486</v>
+        <v>115.9762993100569</v>
       </c>
       <c r="F19" t="n">
-        <v>209.0154767040586</v>
+        <v>115.9762993100569</v>
       </c>
       <c r="G19" t="n">
         <v>41.76508562960205</v>
@@ -5698,25 +5700,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T19" t="n">
-        <v>1331.615243227154</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U19" t="n">
-        <v>1331.615243227154</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V19" t="n">
-        <v>1331.615243227154</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="W19" t="n">
-        <v>1052.545578736028</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="X19" t="n">
-        <v>814.2017165957118</v>
+        <v>624.0814655128718</v>
       </c>
       <c r="Y19" t="n">
-        <v>589.4660179844765</v>
+        <v>624.0814655128718</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1269.297515126813</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="C20" t="n">
-        <v>1269.297515126813</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="D20" t="n">
-        <v>864.8335852198732</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="E20" t="n">
-        <v>450.4933697367699</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F20" t="n">
-        <v>450.4933697367699</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G20" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K20" t="n">
-        <v>41.76508562960205</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="L20" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.450954962253</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N20" t="n">
-        <v>1571.411346813777</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O20" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P20" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q20" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
@@ -5783,19 +5785,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U20" t="n">
-        <v>2088.254281480102</v>
+        <v>1967.129253072105</v>
       </c>
       <c r="V20" t="n">
-        <v>2080.16209262235</v>
+        <v>1967.129253072105</v>
       </c>
       <c r="W20" t="n">
-        <v>2080.16209262235</v>
+        <v>1583.368952207274</v>
       </c>
       <c r="X20" t="n">
-        <v>1679.518694791302</v>
+        <v>1583.368952207274</v>
       </c>
       <c r="Y20" t="n">
-        <v>1679.518694791302</v>
+        <v>1182.432279155364</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="L21" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="M21" t="n">
-        <v>1075.450954962253</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N21" t="n">
-        <v>1592.293889628578</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O21" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P21" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q21" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R21" t="n">
         <v>2088.254281480102</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C22" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D22" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E22" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F22" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G22" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H22" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J22" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K22" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L22" t="n">
         <v>470.2970630371111</v>
@@ -5938,22 +5940,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T22" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U22" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V22" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W22" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X22" t="n">
-        <v>1543.534340936018</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y22" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1277.096428763703</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C23" t="n">
-        <v>866.9718380769729</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D23" t="n">
-        <v>462.5079081700334</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E23" t="n">
-        <v>48.16769268693008</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F23" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L23" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M23" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N23" t="n">
-        <v>1075.450954962253</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O23" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P23" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q23" t="n">
         <v>2047.697635790537</v>
@@ -6032,7 +6034,7 @@
         <v>2088.254281480102</v>
       </c>
       <c r="Y23" t="n">
-        <v>1687.317608428192</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="24">
@@ -6063,10 +6065,10 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="K24" t="n">
         <v>497.5713418949007</v>
@@ -6078,13 +6080,13 @@
         <v>1014.414276561226</v>
       </c>
       <c r="N24" t="n">
-        <v>1054.568412147451</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O24" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P24" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q24" t="n">
         <v>2088.254281480102</v>
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>958.7286455960011</v>
+        <v>875.9304297912963</v>
       </c>
       <c r="C25" t="n">
-        <v>958.7286455960011</v>
+        <v>704.8370573530128</v>
       </c>
       <c r="D25" t="n">
-        <v>800.5109188153651</v>
+        <v>684.1648729196911</v>
       </c>
       <c r="E25" t="n">
-        <v>639.6001036836846</v>
+        <v>523.2540577880106</v>
       </c>
       <c r="F25" t="n">
-        <v>474.9689777942758</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G25" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H25" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K25" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L25" t="n">
         <v>470.2970630371111</v>
@@ -6172,25 +6174,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U25" t="n">
-        <v>1384.772214130362</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V25" t="n">
-        <v>1384.772214130362</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="W25" t="n">
-        <v>1384.772214130362</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="X25" t="n">
-        <v>1146.428351990045</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="Y25" t="n">
-        <v>1146.428351990045</v>
+        <v>1063.630136185341</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>761.4018671090519</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C26" t="n">
-        <v>761.4018671090519</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D26" t="n">
-        <v>761.4018671090519</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E26" t="n">
-        <v>761.4018671090519</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F26" t="n">
-        <v>761.4018671090519</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G26" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L26" t="n">
-        <v>537.7254774811266</v>
+        <v>216.5644706858343</v>
       </c>
       <c r="M26" t="n">
-        <v>1054.568412147452</v>
+        <v>733.4074053521595</v>
       </c>
       <c r="N26" t="n">
-        <v>1054.568412147452</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O26" t="n">
-        <v>1571.411346813777</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P26" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q26" t="n">
         <v>2088.254281480102</v>
@@ -6260,16 +6262,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V26" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W26" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X26" t="n">
-        <v>1572.559719825451</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y26" t="n">
-        <v>1171.623046773541</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G27" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J27" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L27" t="n">
-        <v>690.384199457534</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M27" t="n">
-        <v>1207.227134123859</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="N27" t="n">
-        <v>1724.070068790184</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O27" t="n">
         <v>2058.694762117472</v>
@@ -6339,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.76508562960205</v>
+        <v>372.3531027449755</v>
       </c>
       <c r="C28" t="n">
-        <v>41.76508562960205</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6406,28 +6408,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R28" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S28" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1246.342524902554</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U28" t="n">
-        <v>963.5443774486778</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V28" t="n">
-        <v>689.6586323881997</v>
+        <v>1302.202034381698</v>
       </c>
       <c r="W28" t="n">
-        <v>504.844646381154</v>
+        <v>1023.132369890572</v>
       </c>
       <c r="X28" t="n">
-        <v>266.5007842408373</v>
+        <v>784.7885077502552</v>
       </c>
       <c r="Y28" t="n">
-        <v>41.76508562960205</v>
+        <v>560.0528091390199</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>872.9200883626444</v>
+        <v>1691.724233752687</v>
       </c>
       <c r="C29" t="n">
-        <v>462.7954976759145</v>
+        <v>1281.599643065957</v>
       </c>
       <c r="D29" t="n">
-        <v>462.7954976759145</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E29" t="n">
         <v>462.7954976759145</v>
       </c>
       <c r="F29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K29" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L29" t="n">
+        <v>497.1688317915614</v>
+      </c>
+      <c r="M29" t="n">
+        <v>497.1688317915614</v>
+      </c>
+      <c r="N29" t="n">
         <v>1014.011766457887</v>
       </c>
-      <c r="M29" t="n">
-        <v>1014.011766457887</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>1530.854701124212</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2047.697635790537</v>
       </c>
       <c r="P29" t="n">
         <v>2047.697635790537</v>
@@ -6494,19 +6496,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U29" t="n">
-        <v>2084.721338910091</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V29" t="n">
-        <v>2084.721338910091</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W29" t="n">
-        <v>2084.721338910091</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X29" t="n">
-        <v>1684.077941079044</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y29" t="n">
-        <v>1283.141268027134</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G30" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>508.1659581184966</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.008892784822</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N30" t="n">
-        <v>1541.851827451147</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="O30" t="n">
-        <v>1541.851827451147</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P30" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q30" t="n">
         <v>2058.694762117472</v>
@@ -6573,19 +6575,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U30" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="31">
@@ -6595,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>558.8553848592519</v>
+        <v>1648.189235160388</v>
       </c>
       <c r="C31" t="n">
-        <v>558.8553848592519</v>
+        <v>1477.095862722104</v>
       </c>
       <c r="D31" t="n">
-        <v>558.8553848592519</v>
+        <v>1317.601218045014</v>
       </c>
       <c r="E31" t="n">
-        <v>558.8553848592519</v>
+        <v>1156.690402913334</v>
       </c>
       <c r="F31" t="n">
-        <v>558.8553848592519</v>
+        <v>992.0592770239252</v>
       </c>
       <c r="G31" t="n">
-        <v>558.8553848592519</v>
+        <v>824.8088859494686</v>
       </c>
       <c r="H31" t="n">
-        <v>558.8553848592519</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="I31" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J31" t="n">
-        <v>572.9379342644625</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K31" t="n">
-        <v>727.4902619867005</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L31" t="n">
-        <v>987.3873622667611</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M31" t="n">
         <v>1276.651418707254</v>
       </c>
       <c r="N31" t="n">
-        <v>1557.490201101505</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O31" t="n">
-        <v>1817.050811427979</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P31" t="n">
         <v>2022.726251677591</v>
@@ -6643,28 +6645,28 @@
         <v>2088.254281480102</v>
       </c>
       <c r="R31" t="n">
-        <v>2002.981563155502</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S31" t="n">
-        <v>1816.589795035412</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T31" t="n">
-        <v>1577.041056012114</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U31" t="n">
-        <v>1294.242908558238</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V31" t="n">
-        <v>1020.35716349776</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W31" t="n">
-        <v>741.2874990066346</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X31" t="n">
-        <v>558.8553848592519</v>
+        <v>2060.624640165668</v>
       </c>
       <c r="Y31" t="n">
-        <v>558.8553848592519</v>
+        <v>1835.888941554432</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1542.752026609714</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C32" t="n">
-        <v>1132.627435922984</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D32" t="n">
-        <v>1132.627435922984</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E32" t="n">
-        <v>718.2872204398805</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F32" t="n">
         <v>450.4933697367699</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J32" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L32" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M32" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N32" t="n">
-        <v>1075.450954962253</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O32" t="n">
-        <v>1530.854701124212</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P32" t="n">
         <v>2047.697635790537</v>
@@ -6725,25 +6727,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T32" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U32" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V32" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W32" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X32" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y32" t="n">
-        <v>1952.973206274203</v>
+        <v>1695.988587952916</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="K33" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="L33" t="n">
-        <v>537.7254774811262</v>
+        <v>508.1659581184963</v>
       </c>
       <c r="M33" t="n">
-        <v>537.7254774811262</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N33" t="n">
-        <v>1054.568412147451</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="O33" t="n">
-        <v>1571.411346813777</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P33" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q33" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>224.1971997769844</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="C34" t="n">
-        <v>224.1971997769844</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="D34" t="n">
-        <v>224.1971997769844</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="E34" t="n">
-        <v>224.1971997769844</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="F34" t="n">
-        <v>224.1971997769844</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="G34" t="n">
-        <v>224.1971997769844</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="H34" t="n">
-        <v>158.1111315252759</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L34" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M34" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N34" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O34" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P34" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q34" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R34" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S34" t="n">
-        <v>1299.499495805762</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T34" t="n">
-        <v>1059.950756782464</v>
+        <v>1848.705542456804</v>
       </c>
       <c r="U34" t="n">
-        <v>777.1526093285881</v>
+        <v>1565.907395002928</v>
       </c>
       <c r="V34" t="n">
-        <v>503.2668642681101</v>
+        <v>1292.02164994245</v>
       </c>
       <c r="W34" t="n">
-        <v>224.1971997769844</v>
+        <v>1012.951985451324</v>
       </c>
       <c r="X34" t="n">
-        <v>224.1971997769844</v>
+        <v>774.6081233110078</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.1971997769844</v>
+        <v>558.8553848592514</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>860.6179604234998</v>
+        <v>876.4530309326549</v>
       </c>
       <c r="C35" t="n">
-        <v>450.4933697367699</v>
+        <v>466.328440245925</v>
       </c>
       <c r="D35" t="n">
-        <v>450.4933697367699</v>
+        <v>61.8645103389855</v>
       </c>
       <c r="E35" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F35" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>497.1688317915616</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L35" t="n">
-        <v>1014.011766457887</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="M35" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N35" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O35" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P35" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q35" t="n">
         <v>2047.697635790537</v>
@@ -6968,19 +6970,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U35" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V35" t="n">
-        <v>1481.356235076093</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W35" t="n">
-        <v>1097.595934211262</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X35" t="n">
-        <v>1097.595934211262</v>
+        <v>1687.610883649054</v>
       </c>
       <c r="Y35" t="n">
-        <v>1097.595934211262</v>
+        <v>1286.674210597144</v>
       </c>
     </row>
     <row r="36">
@@ -6990,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G36" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L36" t="n">
-        <v>508.1659581184966</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.008892784822</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="N36" t="n">
-        <v>1025.008892784822</v>
+        <v>1268.263812524885</v>
       </c>
       <c r="O36" t="n">
-        <v>1541.851827451147</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="P36" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q36" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7050,16 +7052,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="37">
@@ -7084,19 +7086,19 @@
         <v>474.9689777942758</v>
       </c>
       <c r="G37" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H37" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I37" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J37" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K37" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L37" t="n">
         <v>470.2970630371111</v>
@@ -7120,22 +7122,22 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S37" t="n">
-        <v>1318.798642324783</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T37" t="n">
-        <v>1318.798642324783</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U37" t="n">
-        <v>1318.798642324783</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V37" t="n">
-        <v>1318.798642324783</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W37" t="n">
-        <v>1318.798642324783</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.798642324783</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="Y37" t="n">
         <v>1318.798642324783</v>
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>740.1083749522213</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="C38" t="n">
-        <v>740.1083749522213</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="D38" t="n">
-        <v>740.1083749522213</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E38" t="n">
-        <v>740.1083749522213</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F38" t="n">
-        <v>439.0253456848109</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G38" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H38" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L38" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M38" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N38" t="n">
         <v>1592.293889628578</v>
       </c>
       <c r="O38" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P38" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q38" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T38" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U38" t="n">
-        <v>1473.706230480572</v>
+        <v>2040.165481836644</v>
       </c>
       <c r="V38" t="n">
-        <v>1123.868675817053</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="W38" t="n">
-        <v>740.1083749522213</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="X38" t="n">
-        <v>740.1083749522213</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="Y38" t="n">
-        <v>740.1083749522213</v>
+        <v>1690.327927173125</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G39" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J39" t="n">
         <v>234.5779431922353</v>
@@ -7257,16 +7259,16 @@
         <v>234.5779431922353</v>
       </c>
       <c r="L39" t="n">
-        <v>751.4208778585605</v>
+        <v>508.1659581184963</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.263812524886</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N39" t="n">
         <v>1541.851827451147</v>
       </c>
       <c r="O39" t="n">
-        <v>1541.851827451147</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P39" t="n">
         <v>2058.694762117472</v>
@@ -7284,19 +7286,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U39" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>613.1783457400041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C40" t="n">
-        <v>442.0849733017207</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D40" t="n">
-        <v>282.5903286246307</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E40" t="n">
-        <v>121.6795134929502</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7360,22 +7362,22 @@
         <v>1299.499495805762</v>
       </c>
       <c r="T40" t="n">
-        <v>1299.499495805762</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U40" t="n">
-        <v>1299.499495805762</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V40" t="n">
-        <v>1025.613750745284</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W40" t="n">
-        <v>1025.613750745284</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X40" t="n">
-        <v>1025.613750745284</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y40" t="n">
-        <v>800.8780521340485</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1274.958175906603</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C41" t="n">
-        <v>864.8335852198732</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="D41" t="n">
-        <v>864.8335852198732</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="E41" t="n">
-        <v>450.4933697367699</v>
+        <v>853.568295645779</v>
       </c>
       <c r="F41" t="n">
-        <v>450.4933697367699</v>
+        <v>432.5378835994666</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J41" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K41" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L41" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M41" t="n">
-        <v>812.7934917636817</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N41" t="n">
-        <v>1329.636426430007</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O41" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P41" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q41" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480102</v>
@@ -7445,16 +7447,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V41" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W41" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X41" t="n">
-        <v>1738.416726816583</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y41" t="n">
-        <v>1337.480053764673</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="42">
@@ -7464,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G42" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K42" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L42" t="n">
-        <v>497.5713418949007</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="M42" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N42" t="n">
-        <v>1054.568412147452</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O42" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P42" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q42" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7524,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>353.9242034151438</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="C43" t="n">
-        <v>182.8308309768603</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="D43" t="n">
-        <v>182.8308309768603</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="E43" t="n">
-        <v>182.8308309768603</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="F43" t="n">
-        <v>182.8308309768603</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G43" t="n">
-        <v>182.8308309768603</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H43" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L43" t="n">
         <v>470.2970630371111</v>
@@ -7591,28 +7593,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S43" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T43" t="n">
-        <v>1145.223475107064</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U43" t="n">
-        <v>1145.223475107064</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V43" t="n">
-        <v>871.3377300465861</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W43" t="n">
-        <v>592.2680655554605</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="X43" t="n">
-        <v>353.9242034151438</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="Y43" t="n">
-        <v>353.9242034151438</v>
+        <v>503.2668642681101</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1596.772494638468</v>
+        <v>1373.612066528674</v>
       </c>
       <c r="C44" t="n">
-        <v>1596.772494638468</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="D44" t="n">
-        <v>1596.772494638468</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="E44" t="n">
-        <v>1182.432279155364</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="F44" t="n">
-        <v>761.4018671090519</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G44" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J44" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K44" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L44" t="n">
-        <v>1329.636426430007</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M44" t="n">
-        <v>1329.636426430007</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N44" t="n">
-        <v>1846.479361096332</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O44" t="n">
-        <v>2047.697635790537</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P44" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q44" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R44" t="n">
         <v>2088.254281480102</v>
@@ -7676,22 +7678,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T44" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U44" t="n">
-        <v>2088.254281480102</v>
+        <v>1783.833246193164</v>
       </c>
       <c r="V44" t="n">
-        <v>2088.254281480102</v>
+        <v>1783.833246193164</v>
       </c>
       <c r="W44" t="n">
-        <v>2088.254281480102</v>
+        <v>1783.833246193164</v>
       </c>
       <c r="X44" t="n">
-        <v>2088.254281480102</v>
+        <v>1783.833246193164</v>
       </c>
       <c r="Y44" t="n">
-        <v>2006.993674302957</v>
+        <v>1783.833246193164</v>
       </c>
     </row>
     <row r="45">
@@ -7701,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G45" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M45" t="n">
-        <v>537.7254774811266</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N45" t="n">
-        <v>1054.568412147452</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O45" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P45" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q45" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R45" t="n">
         <v>2088.254281480102</v>
@@ -7761,16 +7763,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X45" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.76508562960205</v>
+        <v>1648.189235160388</v>
       </c>
       <c r="C46" t="n">
-        <v>41.76508562960205</v>
+        <v>1477.095862722104</v>
       </c>
       <c r="D46" t="n">
-        <v>41.76508562960205</v>
+        <v>1317.601218045014</v>
       </c>
       <c r="E46" t="n">
-        <v>41.76508562960205</v>
+        <v>1156.690402913334</v>
       </c>
       <c r="F46" t="n">
-        <v>41.76508562960205</v>
+        <v>992.0592770239252</v>
       </c>
       <c r="G46" t="n">
-        <v>41.76508562960205</v>
+        <v>824.8088859494686</v>
       </c>
       <c r="H46" t="n">
-        <v>41.76508562960205</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L46" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M46" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N46" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O46" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P46" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q46" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R46" t="n">
-        <v>1571.163982250452</v>
+        <v>2075.43768057773</v>
       </c>
       <c r="S46" t="n">
-        <v>1571.163982250452</v>
+        <v>2075.43768057773</v>
       </c>
       <c r="T46" t="n">
-        <v>1340.598203386633</v>
+        <v>1835.888941554432</v>
       </c>
       <c r="U46" t="n">
-        <v>1057.800055932758</v>
+        <v>1835.888941554432</v>
       </c>
       <c r="V46" t="n">
-        <v>783.9143108722797</v>
+        <v>1835.888941554432</v>
       </c>
       <c r="W46" t="n">
-        <v>504.844646381154</v>
+        <v>1835.888941554432</v>
       </c>
       <c r="X46" t="n">
-        <v>266.5007842408373</v>
+        <v>1835.888941554432</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.76508562960205</v>
+        <v>1835.888941554432</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7984,13 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>553.2940084590249</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
@@ -7997,7 +7999,7 @@
         <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8055,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>395.5690244730516</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>171.9933802602897</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8213,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>265.701425083553</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>496.3946935832878</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
         <v>615.7129336509097</v>
@@ -8237,7 +8239,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,19 +8294,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>333.9158139669643</v>
       </c>
       <c r="N6" t="n">
-        <v>232.5803491573233</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
@@ -8313,7 +8315,7 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8456,7 +8458,7 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>555.4891820648243</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
         <v>615.3537948270711</v>
@@ -8465,16 +8467,16 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>269.754811036119</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,25 +8534,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>334.1030092285466</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>298.7361805822441</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M11" t="n">
         <v>615.3537948270711</v>
@@ -8702,7 +8704,7 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958087</v>
+        <v>553.1935596277625</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
@@ -8769,25 +8771,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>67.6779873391382</v>
       </c>
       <c r="O12" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P12" t="n">
-        <v>360.4692655976433</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8924,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>555.4891820648243</v>
       </c>
       <c r="M14" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N14" t="n">
-        <v>296.1630732760186</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P14" t="n">
         <v>93.64936328088416</v>
@@ -9003,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>557.0846165901669</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N15" t="n">
-        <v>575.2569637637755</v>
+        <v>67.6779873391382</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9167,22 +9169,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>231.0841246958424</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M17" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N17" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O17" t="n">
-        <v>615.2533459958087</v>
+        <v>553.1935596277625</v>
       </c>
       <c r="P17" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9246,19 +9248,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>578.1780941808746</v>
+        <v>557.0846165901664</v>
       </c>
       <c r="M18" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O18" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P18" t="n">
-        <v>555.2297277821215</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9401,19 +9403,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>89.13638967321712</v>
+        <v>549.1401736751963</v>
       </c>
       <c r="L20" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N20" t="n">
-        <v>593.882383535937</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P20" t="n">
         <v>93.64936328088416</v>
@@ -9422,7 +9424,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,25 +9485,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O21" t="n">
-        <v>558.7215717793172</v>
+        <v>175.4852242574857</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,22 +9643,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N23" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O23" t="n">
-        <v>228.7885022587807</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P23" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9720,22 +9722,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>93.75312630912927</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700256</v>
+        <v>266.9965351298658</v>
       </c>
       <c r="P24" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9878,22 +9880,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>596.4554908421626</v>
+        <v>272.0504334731805</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N26" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O26" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P26" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
         <v>87.31214281472352</v>
@@ -9954,19 +9956,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M27" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637755</v>
+        <v>329.5449236222964</v>
       </c>
       <c r="O27" t="n">
-        <v>395.7562197346342</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10112,22 +10114,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K29" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>555.4891820648243</v>
+        <v>555.489182064824</v>
       </c>
       <c r="M29" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O29" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P29" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q29" t="n">
         <v>90.03380439915205</v>
@@ -10188,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>527.2265162238739</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M30" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637755</v>
+        <v>559.8834573428702</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10346,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N32" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O32" t="n">
-        <v>553.1935596277625</v>
+        <v>296.4405581451822</v>
       </c>
       <c r="P32" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q32" t="n">
         <v>90.03380439915205</v>
@@ -10428,28 +10430,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>96.67425672622828</v>
+        <v>527.2265162238735</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P33" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>549.1401736751965</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328704</v>
+        <v>496.3946935832874</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O35" t="n">
         <v>93.18977562578313</v>
@@ -10604,7 +10606,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10662,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>527.2265162238739</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P36" t="n">
-        <v>576.3232053728293</v>
+        <v>360.4692655976433</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,25 +10828,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O38" t="n">
-        <v>553.1935596277625</v>
+        <v>269.7548110361188</v>
       </c>
       <c r="P38" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,19 +10907,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>578.1780941808746</v>
+        <v>332.4660540393955</v>
       </c>
       <c r="M39" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N39" t="n">
-        <v>329.5449236222966</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P39" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N41" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O41" t="n">
-        <v>494.099071146226</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P41" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M42" t="n">
-        <v>579.627854108443</v>
+        <v>502.6011371814505</v>
       </c>
       <c r="N42" t="n">
-        <v>93.75312630912974</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P42" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O44" t="n">
-        <v>296.4405581451824</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>594.6194560602016</v>
       </c>
       <c r="Q44" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>558.5343765177352</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491204</v>
       </c>
       <c r="P45" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>396.2678730121402</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13.55422061770372</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22613,7 +22615,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,22 +22710,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>23.12472639190918</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>114.1674275940277</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22784,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>296.9859754751884</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>43.71087832835393</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22987,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>8.893130557884689</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23005,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23021,10 +23023,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>138.0004810564362</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>133.2688311445896</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23084,7 +23086,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -23230,7 +23232,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -23242,10 +23244,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>209.7999067317757</v>
       </c>
     </row>
     <row r="11">
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>12.07625401595521</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23318,13 +23320,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>369.801790114295</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>17.77593127592968</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>135.6570648247285</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -23704,7 +23706,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>8.893130557884689</v>
+        <v>194.7158398879886</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>12.07625401595521</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>13.55422061770372</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23890,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>141.5439268069056</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>92.10878562006171</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23938,25 +23940,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24023,19 +24025,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>134.5761086991687</v>
       </c>
       <c r="V20" t="n">
-        <v>338.3279121477089</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24180,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>8.893130557884632</v>
       </c>
     </row>
     <row r="23">
@@ -24206,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>17.77593127593013</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>410.4815269390945</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -24272,7 +24274,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.264148717489462</v>
+        <v>137.4342356413306</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -24427,10 +24429,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>17.77593127593013</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24500,16 +24502,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>232.4385269315167</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>4.874559219806486</v>
       </c>
       <c r="W28" t="n">
-        <v>93.31312169923902</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24677,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>13.55422061770423</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24734,7 +24736,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>250.992273678774</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24743,10 +24745,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>55.35263051300461</v>
+        <v>208.6070786176236</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24926,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>151.7041957297698</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
         <v>219.9844192126098</v>
@@ -24983,7 +24985,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>8.584269729476546</v>
       </c>
     </row>
     <row r="33">
@@ -25090,10 +25092,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>82.68617307340649</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788412</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>171.5107738179603</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>390.2983828659826</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -25208,19 +25210,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>19.10615505383106</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -25378,7 +25380,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>57.06664624006515</v>
       </c>
     </row>
     <row r="38">
@@ -25394,22 +25396,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>118.747908951113</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>206.8819751760622</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>83.86953104580004</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
@@ -25600,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>344.2223087883555</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25637,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>17.77593127593025</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -25685,7 +25687,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -25694,7 +25696,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25786,7 +25788,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -25795,13 +25797,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>134.9699070214187</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>123.6388781855293</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,10 +25918,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>173.0974811016262</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25931,7 +25933,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>316.4793052160171</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>71.73155624800641</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>8.893130557884689</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>561983.6508619786</v>
+        <v>561983.6508619788</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>561983.6508619786</v>
+        <v>561983.6508619789</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>561983.6508619786</v>
+        <v>561983.6508619788</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>561983.6508619786</v>
+        <v>561983.6508619788</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>561983.6508619788</v>
+        <v>561983.6508619786</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>561983.6508619788</v>
+        <v>561983.6508619786</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>561983.6508619789</v>
+        <v>561983.6508619788</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>561983.6508619788</v>
+        <v>561983.6508619786</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>561983.6508619786</v>
+        <v>561983.6508619788</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>561983.6508619786</v>
+        <v>561983.6508619788</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26316,7 @@
         <v>152207.2113488842</v>
       </c>
       <c r="C2" t="n">
-        <v>152207.2113488842</v>
+        <v>152207.2113488841</v>
       </c>
       <c r="D2" t="n">
         <v>152207.2113488842</v>
@@ -26332,25 +26334,25 @@
         <v>152207.2113488842</v>
       </c>
       <c r="I2" t="n">
-        <v>152207.2113488842</v>
+        <v>152207.2113488841</v>
       </c>
       <c r="J2" t="n">
-        <v>152207.2113488842</v>
+        <v>152207.2113488841</v>
       </c>
       <c r="K2" t="n">
-        <v>152207.2113488842</v>
+        <v>152207.2113488841</v>
       </c>
       <c r="L2" t="n">
-        <v>152207.2113488842</v>
+        <v>152207.2113488841</v>
       </c>
       <c r="M2" t="n">
-        <v>152207.2113488842</v>
+        <v>152207.2113488841</v>
       </c>
       <c r="N2" t="n">
         <v>152207.2113488842</v>
       </c>
       <c r="O2" t="n">
-        <v>152207.2113488842</v>
+        <v>152207.2113488841</v>
       </c>
       <c r="P2" t="n">
         <v>152207.2113488842</v>
@@ -26421,13 +26423,13 @@
         <v>48718.21749193841</v>
       </c>
       <c r="D4" t="n">
-        <v>48718.21749193841</v>
+        <v>48718.21749193842</v>
       </c>
       <c r="E4" t="n">
         <v>48718.21749193841</v>
       </c>
       <c r="F4" t="n">
-        <v>48718.21749193841</v>
+        <v>48718.21749193842</v>
       </c>
       <c r="G4" t="n">
         <v>48718.21749193842</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136835.5811146659</v>
+        <v>-136835.5811146658</v>
       </c>
       <c r="C6" t="n">
+        <v>38119.92877844817</v>
+      </c>
+      <c r="D6" t="n">
         <v>38119.92877844822</v>
       </c>
-      <c r="D6" t="n">
-        <v>38119.92877844819</v>
-      </c>
       <c r="E6" t="n">
-        <v>71747.52877844828</v>
+        <v>71747.52877844822</v>
       </c>
       <c r="F6" t="n">
-        <v>71747.52877844822</v>
+        <v>71747.52877844825</v>
       </c>
       <c r="G6" t="n">
-        <v>71747.52877844822</v>
+        <v>71747.52877844819</v>
       </c>
       <c r="H6" t="n">
-        <v>71747.52877844825</v>
+        <v>71747.52877844824</v>
       </c>
       <c r="I6" t="n">
-        <v>71747.52877844819</v>
+        <v>71747.52877844818</v>
       </c>
       <c r="J6" t="n">
-        <v>-64847.27202744676</v>
+        <v>-64847.2720274468</v>
       </c>
       <c r="K6" t="n">
-        <v>71747.52877844819</v>
+        <v>71747.52877844815</v>
       </c>
       <c r="L6" t="n">
-        <v>71747.52877844825</v>
+        <v>71747.52877844815</v>
       </c>
       <c r="M6" t="n">
-        <v>71747.52877844819</v>
+        <v>71747.52877844815</v>
       </c>
       <c r="N6" t="n">
-        <v>71747.52877844825</v>
+        <v>71747.52877844824</v>
       </c>
       <c r="O6" t="n">
-        <v>71747.52877844825</v>
+        <v>71747.52877844818</v>
       </c>
       <c r="P6" t="n">
-        <v>71747.52877844819</v>
+        <v>71747.52877844824</v>
       </c>
     </row>
   </sheetData>
@@ -26805,31 +26807,31 @@
         <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
     </row>
   </sheetData>
@@ -34702,13 +34704,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>460.0037840019794</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
@@ -34717,7 +34719,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M3" t="n">
-        <v>338.0047407346341</v>
       </c>
       <c r="N3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34933,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>176.5650354103358</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>522.0635703700256</v>
@@ -34957,7 +34959,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>276.3515302285469</v>
       </c>
       <c r="N6" t="n">
-        <v>179.3869557635733</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
@@ -35033,7 +35035,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35176,7 +35178,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
         <v>522.0635703700256</v>
@@ -35185,16 +35187,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O9" t="n">
-        <v>276.3515302285466</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>203.2507825193993</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M11" t="n">
         <v>522.0635703700256</v>
@@ -35422,7 +35424,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="O12" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P12" t="n">
-        <v>306.2096305948396</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="M14" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N14" t="n">
-        <v>203.2507825193993</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N15" t="n">
+        <v>14.48459394538821</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O15" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35887,22 +35889,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>135.5987266329975</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N17" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O17" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="P17" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793173</v>
       </c>
       <c r="M18" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O18" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P18" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,19 +36123,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="L20" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N20" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O21" t="n">
-        <v>500.9700927793172</v>
+        <v>117.7337452574857</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,22 +36363,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M23" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N23" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O23" t="n">
-        <v>135.5987266329976</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P23" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>40.9663087773382</v>
@@ -36440,22 +36442,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>40.55973291537929</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>522.0635703700256</v>
+        <v>209.2450561298658</v>
       </c>
       <c r="P24" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,22 +36600,22 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>500.9700927793178</v>
+        <v>176.5650354103356</v>
       </c>
       <c r="M26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P26" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,19 +36676,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N27" t="n">
-        <v>522.0635703700256</v>
+        <v>276.3515302285464</v>
       </c>
       <c r="O27" t="n">
-        <v>338.0047407346341</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36832,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>460.0037840019794</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>471.1119924130248</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491203</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>29.85810036629282</v>
@@ -37066,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O32" t="n">
-        <v>460.0037840019794</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="P32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>40.55973291537923</v>
+        <v>471.1119924130245</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204426</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>471.1119924130248</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P36" t="n">
-        <v>522.0635703700256</v>
+        <v>306.2096305948396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O38" t="n">
-        <v>460.0037840019794</v>
+        <v>176.5650354103356</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>522.0635703700256</v>
+        <v>276.3515302285465</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N39" t="n">
-        <v>276.3515302285466</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P39" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N41" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O41" t="n">
-        <v>400.9092955204429</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700256</v>
+        <v>445.0368534430331</v>
       </c>
       <c r="N42" t="n">
-        <v>40.55973291537975</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O44" t="n">
-        <v>203.2507825193993</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="P45" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>273314.2959381405</v>
+        <v>267584.900106914</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11821355.91763806</v>
+        <v>11821355.91763804</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6498286.039260893</v>
+        <v>6498286.039260892</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>4.151417595729786</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
@@ -676,10 +676,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>64.70446839755404</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424963</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>136.1769805884545</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>42.43741174507632</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>14.84773603122047</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.77736672774364</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -1113,13 +1113,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>62.69727349948972</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059085</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>267.1504594632804</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1147,10 +1147,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>232.9258636782368</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V9" t="n">
-        <v>211.5744117368968</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
         <v>211.1008365810345</v>
@@ -1293,25 +1293,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.68843489334725</v>
+        <v>27.77250173713433</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>393.9470907639073</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>28.11724303810204</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>149.3012710824526</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>388.2474135039329</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>141.5464444442208</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>11.97200389248233</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>42.43741174507631</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>393.9470907639073</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1858,10 +1858,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>252.9368055363263</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>73.4691015436503</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>54.29350408687458</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -2061,10 +2061,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>24.64318872490273</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>119.9137781239163</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2298,7 +2298,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>262.2537570519885</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.5952110672383</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>388.2474135039324</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>383.5604440308339</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>20.4654625889885</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>388.2474135039324</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>411.6465485652886</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>266.2723283900668</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>392.5647472501403</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>193.677505826948</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596193</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>27.35334490128979</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="32">
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>388.3430365919143</v>
+        <v>394.5464726934576</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I33" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.5952110672388</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="35">
@@ -3271,13 +3271,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>166.8806507775566</v>
       </c>
       <c r="E35" t="n">
-        <v>19.89843046228963</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.4216953850578</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>9.635872477770377</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>47.6079116470228</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>105.9202115588044</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H39" t="n">
         <v>70.03974083464111</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>408.468012957384</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>386.8650699901659</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>28.0149076090959</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3960,13 +3960,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>252.9368055363263</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>81.39240572145881</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>12.68843489334793</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
   </sheetData>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1687.317608428192</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="C2" t="n">
-        <v>1687.317608428192</v>
+        <v>936.8818306695006</v>
       </c>
       <c r="D2" t="n">
-        <v>1683.124257321394</v>
+        <v>936.8818306695006</v>
       </c>
       <c r="E2" t="n">
-        <v>1268.784041838291</v>
+        <v>936.8818306695006</v>
       </c>
       <c r="F2" t="n">
-        <v>847.7536297919787</v>
+        <v>515.8514186231881</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>107.1231345160203</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>692.8507596625949</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N2" t="n">
-        <v>692.8507596625949</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="Y2" t="n">
-        <v>1687.317608428192</v>
+        <v>1347.00642135623</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I3" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M3" t="n">
-        <v>558.6080202959273</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="N3" t="n">
-        <v>1075.450954962253</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="O3" t="n">
-        <v>1592.293889628578</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4454,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.1526093285881</v>
+        <v>84.63115809937611</v>
       </c>
       <c r="C4" t="n">
-        <v>777.1526093285881</v>
+        <v>84.63115809937611</v>
       </c>
       <c r="D4" t="n">
-        <v>777.1526093285881</v>
+        <v>84.63115809937611</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>84.63115809937611</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>84.63115809937611</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>84.63115809937611</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>84.63115809937611</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V4" t="n">
-        <v>777.1526093285881</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W4" t="n">
-        <v>777.1526093285881</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X4" t="n">
-        <v>777.1526093285881</v>
+        <v>497.0665631046558</v>
       </c>
       <c r="Y4" t="n">
-        <v>777.1526093285881</v>
+        <v>272.3308644934205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>492.6927300678241</v>
+        <v>1285.691534869224</v>
       </c>
       <c r="C5" t="n">
-        <v>492.6927300678241</v>
+        <v>875.5669441824938</v>
       </c>
       <c r="D5" t="n">
-        <v>492.6927300678241</v>
+        <v>471.1030142755543</v>
       </c>
       <c r="E5" t="n">
-        <v>492.6927300678241</v>
+        <v>56.76279879245101</v>
       </c>
       <c r="F5" t="n">
-        <v>492.6927300678241</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
-        <v>83.96444596065624</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>83.96444596065624</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4570,49 +4570,49 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>692.8507596625949</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>692.8507596625949</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N5" t="n">
-        <v>692.8507596625949</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O5" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.493980615271</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="X5" t="n">
-        <v>1303.850582784223</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="Y5" t="n">
-        <v>902.9139097323135</v>
+        <v>1695.912714533713</v>
       </c>
     </row>
     <row r="6">
@@ -4649,13 +4649,13 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>751.4208778585605</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.008892784822</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
         <v>1025.008892784822</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>799.0947483607745</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>799.0947483607745</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>799.0947483607745</v>
       </c>
       <c r="W7" t="n">
-        <v>224.1971997769844</v>
+        <v>799.0947483607745</v>
       </c>
       <c r="X7" t="n">
-        <v>41.76508562960205</v>
+        <v>799.0947483607745</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.76508562960205</v>
+        <v>799.0947483607745</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1952.973206274203</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="C8" t="n">
-        <v>1952.973206274203</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="D8" t="n">
-        <v>1683.124257321394</v>
+        <v>963.4874758419446</v>
       </c>
       <c r="E8" t="n">
-        <v>1268.784041838291</v>
+        <v>549.1472603588413</v>
       </c>
       <c r="F8" t="n">
-        <v>847.7536297919787</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G8" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
         <v>128.1168483125289</v>
@@ -4804,52 +4804,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O8" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U8" t="n">
-        <v>1952.973206274203</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V8" t="n">
-        <v>1952.973206274203</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.973206274203</v>
+        <v>1373.708655506434</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.973206274203</v>
+        <v>1373.708655506434</v>
       </c>
       <c r="Y8" t="n">
-        <v>1952.973206274203</v>
+        <v>1373.708655506434</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
@@ -4889,16 +4889,16 @@
         <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>1192.007362767164</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>1192.007362767164</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N9" t="n">
-        <v>1192.007362767164</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O9" t="n">
-        <v>1192.007362767164</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P9" t="n">
         <v>1708.850297433489</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4995,19 +4995,19 @@
         <v>1331.615243227154</v>
       </c>
       <c r="U10" t="n">
-        <v>1331.615243227154</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V10" t="n">
-        <v>1331.615243227154</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W10" t="n">
-        <v>1331.615243227154</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X10" t="n">
-        <v>1331.615243227154</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y10" t="n">
-        <v>1318.798642324783</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2088.254281480102</v>
+        <v>884.7548618173139</v>
       </c>
       <c r="C11" t="n">
-        <v>1690.327927173125</v>
+        <v>474.630271130584</v>
       </c>
       <c r="D11" t="n">
-        <v>1285.863997266186</v>
+        <v>70.16634122364451</v>
       </c>
       <c r="E11" t="n">
-        <v>871.5237817830823</v>
+        <v>70.16634122364451</v>
       </c>
       <c r="F11" t="n">
-        <v>450.4933697367699</v>
+        <v>70.16634122364451</v>
       </c>
       <c r="G11" t="n">
         <v>41.76508562960205</v>
@@ -5041,52 +5041,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L11" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M11" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N11" t="n">
-        <v>1592.293889628578</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O11" t="n">
-        <v>2047.697635790537</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="Y11" t="n">
-        <v>2088.254281480102</v>
+        <v>1294.976041481803</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D12" t="n">
         <v>469.7036984844747</v>
@@ -5111,37 +5111,37 @@
         <v>240.2510026593072</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H12" t="n">
-        <v>62.5136770093618</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L12" t="n">
-        <v>690.384199457534</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M12" t="n">
-        <v>690.384199457534</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N12" t="n">
-        <v>704.7239474634683</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O12" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P12" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5159,7 +5159,7 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1131.098935930739</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="C13" t="n">
-        <v>960.0055634924552</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5109188153651</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
         <v>41.76508562960205</v>
@@ -5226,25 +5226,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T13" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U13" t="n">
-        <v>1571.163982250452</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V13" t="n">
-        <v>1571.163982250452</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="W13" t="n">
-        <v>1571.163982250452</v>
+        <v>822.9044021853606</v>
       </c>
       <c r="X13" t="n">
-        <v>1543.534340936018</v>
+        <v>584.560540045044</v>
       </c>
       <c r="Y13" t="n">
-        <v>1318.798642324783</v>
+        <v>359.8248414338087</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1678.033101815613</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="C14" t="n">
-        <v>1285.863997266186</v>
+        <v>679.8213389290107</v>
       </c>
       <c r="D14" t="n">
-        <v>1285.863997266186</v>
+        <v>679.8213389290107</v>
       </c>
       <c r="E14" t="n">
-        <v>871.5237817830823</v>
+        <v>679.8213389290107</v>
       </c>
       <c r="F14" t="n">
-        <v>450.4933697367699</v>
+        <v>679.8213389290107</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>271.0930548218429</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I14" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L14" t="n">
-        <v>497.1688317915616</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N14" t="n">
-        <v>1530.854701124212</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O14" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P14" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q14" t="n">
         <v>2047.697635790537</v>
@@ -5305,25 +5305,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.254281480102</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.254281480102</v>
+        <v>1089.945929615741</v>
       </c>
     </row>
     <row r="15">
@@ -5363,22 +5363,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M15" t="n">
         <v>1207.227134123859</v>
       </c>
       <c r="N15" t="n">
-        <v>1221.566882129794</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O15" t="n">
-        <v>1221.566882129794</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P15" t="n">
-        <v>1738.409816796119</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960205</v>
+        <v>877.2383680652509</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960205</v>
+        <v>706.1449956269674</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960205</v>
+        <v>546.6503509498775</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960205</v>
+        <v>385.739535818197</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960205</v>
+        <v>221.1084099287883</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960205</v>
+        <v>53.85801885433168</v>
       </c>
       <c r="H16" t="n">
         <v>41.76508562960205</v>
@@ -5463,25 +5463,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T16" t="n">
-        <v>1528.297909780678</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U16" t="n">
-        <v>1245.499762326802</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V16" t="n">
-        <v>971.614017266324</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="W16" t="n">
-        <v>692.5443527751984</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="X16" t="n">
-        <v>454.2004906348818</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="Y16" t="n">
-        <v>229.4647920236465</v>
+        <v>877.2383680652509</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2088.254281480102</v>
+        <v>1542.752026609714</v>
       </c>
       <c r="C17" t="n">
-        <v>1690.327927173125</v>
+        <v>1132.627435922984</v>
       </c>
       <c r="D17" t="n">
-        <v>1285.863997266186</v>
+        <v>1132.627435922984</v>
       </c>
       <c r="E17" t="n">
-        <v>871.5237817830823</v>
+        <v>718.2872204398805</v>
       </c>
       <c r="F17" t="n">
-        <v>450.4933697367699</v>
+        <v>297.256808393568</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>297.256808393568</v>
       </c>
       <c r="H17" t="n">
         <v>41.76508562960205</v>
@@ -5515,25 +5515,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962253</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N17" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O17" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P17" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q17" t="n">
         <v>2047.697635790537</v>
@@ -5542,25 +5542,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y17" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I18" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>537.7254774811262</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M18" t="n">
-        <v>1054.568412147451</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N18" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O18" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P18" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5630,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>436.3817591188274</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="C19" t="n">
-        <v>436.3817591188274</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="D19" t="n">
-        <v>276.8871144417374</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="E19" t="n">
-        <v>115.9762993100569</v>
+        <v>96.60700894967738</v>
       </c>
       <c r="F19" t="n">
-        <v>115.9762993100569</v>
+        <v>96.60700894967738</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>96.60700894967738</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>96.60700894967738</v>
       </c>
       <c r="I19" t="n">
         <v>41.76508562960205</v>
@@ -5700,25 +5700,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1145.223475107064</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U19" t="n">
-        <v>862.4253276531883</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V19" t="n">
-        <v>862.4253276531883</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W19" t="n">
-        <v>862.4253276531883</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X19" t="n">
-        <v>624.0814655128718</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y19" t="n">
-        <v>624.0814655128718</v>
+        <v>257.5178240813579</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1182.432279155364</v>
+        <v>1312.152413668882</v>
       </c>
       <c r="C20" t="n">
-        <v>1182.432279155364</v>
+        <v>902.0278229821519</v>
       </c>
       <c r="D20" t="n">
-        <v>1182.432279155364</v>
+        <v>902.0278229821519</v>
       </c>
       <c r="E20" t="n">
-        <v>1182.432279155364</v>
+        <v>487.6876074990486</v>
       </c>
       <c r="F20" t="n">
-        <v>761.4018671090519</v>
+        <v>66.65719545273612</v>
       </c>
       <c r="G20" t="n">
-        <v>352.673583001884</v>
+        <v>66.65719545273612</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960203</v>
+        <v>66.65719545273612</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>497.1688317915614</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L20" t="n">
+        <v>812.7934917636817</v>
+      </c>
+      <c r="M20" t="n">
+        <v>812.7934917636817</v>
+      </c>
+      <c r="N20" t="n">
         <v>1014.011766457887</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20" t="n">
         <v>1530.854701124212</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1530.854701124212</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2047.697635790537</v>
       </c>
       <c r="P20" t="n">
         <v>2047.697635790537</v>
@@ -5779,25 +5779,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T20" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U20" t="n">
-        <v>1967.129253072105</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V20" t="n">
-        <v>1967.129253072105</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W20" t="n">
-        <v>1583.368952207274</v>
+        <v>1312.152413668882</v>
       </c>
       <c r="X20" t="n">
-        <v>1583.368952207274</v>
+        <v>1312.152413668882</v>
       </c>
       <c r="Y20" t="n">
-        <v>1182.432279155364</v>
+        <v>1312.152413668882</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C21" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F21" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G21" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960204</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960204</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>41.76508562960204</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>558.6080202959272</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N21" t="n">
-        <v>1075.450954962252</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O21" t="n">
-        <v>1192.007362767163</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P21" t="n">
-        <v>1708.850297433488</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q21" t="n">
         <v>2058.694762117472</v>
@@ -5867,16 +5867,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W21" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X21" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
         <v>470.2970630371111</v>
@@ -5946,16 +5946,16 @@
         <v>1048.817095773278</v>
       </c>
       <c r="V22" t="n">
-        <v>774.9313507128002</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W22" t="n">
-        <v>495.8616862216745</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X22" t="n">
-        <v>257.5178240813579</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1678.033101815612</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C23" t="n">
-        <v>1285.863997266186</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D23" t="n">
-        <v>1285.863997266186</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E23" t="n">
-        <v>871.5237817830823</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F23" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L23" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M23" t="n">
-        <v>1075.450954962252</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N23" t="n">
-        <v>1592.293889628578</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O23" t="n">
-        <v>2047.697635790537</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P23" t="n">
         <v>2047.697635790537</v>
@@ -6016,25 +6016,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T23" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U23" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V23" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W23" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X23" t="n">
-        <v>2088.254281480102</v>
+        <v>352.673583001884</v>
       </c>
       <c r="Y23" t="n">
-        <v>2088.254281480102</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C24" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D24" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E24" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F24" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G24" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960204</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L24" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M24" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N24" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O24" t="n">
-        <v>1221.566882129793</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P24" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q24" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R24" t="n">
         <v>2088.254281480102</v>
@@ -6104,16 +6104,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W24" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X24" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>875.9304297912963</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C25" t="n">
-        <v>704.8370573530128</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D25" t="n">
-        <v>684.1648729196911</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E25" t="n">
-        <v>523.2540577880106</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F25" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G25" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
         <v>470.2970630371111</v>
@@ -6177,22 +6177,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>1571.163982250452</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U25" t="n">
-        <v>1288.365834796576</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V25" t="n">
-        <v>1288.365834796576</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W25" t="n">
-        <v>1288.365834796576</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X25" t="n">
-        <v>1288.365834796576</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y25" t="n">
-        <v>1063.630136185341</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1678.033101815612</v>
+        <v>457.5696801399946</v>
       </c>
       <c r="C26" t="n">
-        <v>1285.863997266186</v>
+        <v>457.5696801399946</v>
       </c>
       <c r="D26" t="n">
-        <v>1285.863997266186</v>
+        <v>457.5696801399946</v>
       </c>
       <c r="E26" t="n">
-        <v>871.5237817830823</v>
+        <v>457.5696801399946</v>
       </c>
       <c r="F26" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L26" t="n">
-        <v>216.5644706858343</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M26" t="n">
-        <v>733.4074053521595</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N26" t="n">
-        <v>1250.250340018485</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O26" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P26" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q26" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R26" t="n">
         <v>2088.254281480102</v>
@@ -6256,22 +6256,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T26" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U26" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V26" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W26" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="X26" t="n">
-        <v>2088.254281480102</v>
+        <v>858.5063531919045</v>
       </c>
       <c r="Y26" t="n">
-        <v>2088.254281480102</v>
+        <v>457.5696801399946</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
         <v>234.5779431922353</v>
@@ -6311,19 +6311,19 @@
         <v>234.5779431922353</v>
       </c>
       <c r="L27" t="n">
+        <v>234.5779431922353</v>
+      </c>
+      <c r="M27" t="n">
+        <v>234.5779431922353</v>
+      </c>
+      <c r="N27" t="n">
         <v>751.4208778585605</v>
       </c>
-      <c r="M27" t="n">
-        <v>1268.263812524886</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1541.851827451147</v>
-      </c>
       <c r="O27" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P27" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q27" t="n">
         <v>2058.694762117472</v>
@@ -6341,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>372.3531027449755</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C28" t="n">
-        <v>201.259730306692</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6414,22 +6414,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U28" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V28" t="n">
-        <v>1302.202034381698</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W28" t="n">
-        <v>1023.132369890572</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X28" t="n">
-        <v>784.7885077502552</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y28" t="n">
-        <v>560.0528091390199</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1691.724233752687</v>
+        <v>1072.769557428662</v>
       </c>
       <c r="C29" t="n">
-        <v>1281.599643065957</v>
+        <v>1072.769557428662</v>
       </c>
       <c r="D29" t="n">
-        <v>877.1357131590178</v>
+        <v>1072.769557428662</v>
       </c>
       <c r="E29" t="n">
-        <v>462.7954976759145</v>
+        <v>658.4293419455589</v>
       </c>
       <c r="F29" t="n">
-        <v>41.76508562960203</v>
+        <v>237.3989298992465</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960203</v>
+        <v>237.3989298992465</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K29" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L29" t="n">
-        <v>497.1688317915614</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M29" t="n">
-        <v>497.1688317915614</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N29" t="n">
-        <v>1014.011766457887</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O29" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P29" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q29" t="n">
         <v>2047.697635790537</v>
@@ -6490,25 +6490,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S29" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2088.254281480102</v>
+        <v>1072.769557428662</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G30" t="n">
-        <v>133.2608899736455</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936156</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
         <v>234.5779431922353</v>
@@ -6548,19 +6548,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M30" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N30" t="n">
-        <v>1708.850297433488</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O30" t="n">
-        <v>1708.850297433488</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P30" t="n">
-        <v>1708.850297433488</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q30" t="n">
         <v>2058.694762117472</v>
@@ -6575,19 +6575,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U30" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1648.189235160388</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C31" t="n">
-        <v>1477.095862722104</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D31" t="n">
-        <v>1317.601218045014</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E31" t="n">
-        <v>1156.690402913334</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F31" t="n">
-        <v>992.0592770239252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G31" t="n">
-        <v>824.8088859494686</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H31" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I31" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J31" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K31" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L31" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M31" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N31" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O31" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P31" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U31" t="n">
-        <v>2088.254281480102</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V31" t="n">
-        <v>2088.254281480102</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W31" t="n">
-        <v>2088.254281480102</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X31" t="n">
-        <v>2060.624640165668</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y31" t="n">
-        <v>1835.888941554432</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1695.988587952916</v>
+        <v>860.6179604234998</v>
       </c>
       <c r="C32" t="n">
-        <v>1285.863997266186</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="D32" t="n">
-        <v>1285.863997266186</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E32" t="n">
-        <v>871.5237817830823</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F32" t="n">
         <v>450.4933697367699</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L32" t="n">
-        <v>812.7934917636815</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M32" t="n">
-        <v>1329.636426430007</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="N32" t="n">
-        <v>1846.479361096332</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O32" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P32" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q32" t="n">
         <v>2047.697635790537</v>
@@ -6730,22 +6730,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T32" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U32" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V32" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W32" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="X32" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="Y32" t="n">
-        <v>1695.988587952916</v>
+        <v>860.6179604234998</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D33" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E33" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G33" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960204</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>41.76508562960204</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>508.1659581184963</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.008892784821</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N33" t="n">
-        <v>1025.008892784821</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O33" t="n">
-        <v>1541.851827451147</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P33" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q33" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6815,16 +6815,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V33" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W33" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X33" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J34" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K34" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L34" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M34" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N34" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O34" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P34" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>1848.705542456804</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U34" t="n">
-        <v>1565.907395002928</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V34" t="n">
-        <v>1292.02164994245</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W34" t="n">
-        <v>1012.951985451324</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X34" t="n">
-        <v>774.6081233110078</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>876.4530309326549</v>
+        <v>1455.826617762472</v>
       </c>
       <c r="C35" t="n">
-        <v>466.328440245925</v>
+        <v>1045.702027075742</v>
       </c>
       <c r="D35" t="n">
-        <v>61.8645103389855</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E35" t="n">
-        <v>41.76508562960203</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L35" t="n">
-        <v>692.8507596625946</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M35" t="n">
         <v>1209.69369432892</v>
       </c>
       <c r="N35" t="n">
-        <v>1726.536628995245</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O35" t="n">
-        <v>1726.536628995245</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P35" t="n">
         <v>1726.536628995245</v>
@@ -6967,22 +6967,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T35" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U35" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V35" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W35" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X35" t="n">
-        <v>1687.610883649054</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="Y35" t="n">
-        <v>1286.674210597144</v>
+        <v>1866.047797426961</v>
       </c>
     </row>
     <row r="36">
@@ -7010,28 +7010,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>234.5779431922353</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M36" t="n">
-        <v>751.4208778585604</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N36" t="n">
-        <v>1268.263812524885</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O36" t="n">
-        <v>1785.106747191211</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P36" t="n">
         <v>2088.254281480102</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C37" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D37" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E37" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F37" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G37" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H37" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J37" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K37" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L37" t="n">
         <v>470.2970630371111</v>
@@ -7119,28 +7119,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R37" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S37" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T37" t="n">
-        <v>1485.891263925851</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U37" t="n">
-        <v>1485.891263925851</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V37" t="n">
-        <v>1485.891263925851</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W37" t="n">
-        <v>1485.891263925851</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X37" t="n">
-        <v>1485.891263925851</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y37" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1690.327927173125</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="C38" t="n">
-        <v>1690.327927173125</v>
+        <v>552.1902683186325</v>
       </c>
       <c r="D38" t="n">
-        <v>1285.863997266186</v>
+        <v>542.4570637956322</v>
       </c>
       <c r="E38" t="n">
-        <v>871.5237817830823</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="F38" t="n">
-        <v>450.4933697367699</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K38" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L38" t="n">
-        <v>558.6080202959272</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M38" t="n">
-        <v>1075.450954962252</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N38" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O38" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P38" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q38" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T38" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U38" t="n">
-        <v>2040.165481836644</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V38" t="n">
-        <v>1690.327927173125</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W38" t="n">
-        <v>1690.327927173125</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="X38" t="n">
-        <v>1690.327927173125</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="Y38" t="n">
-        <v>1690.327927173125</v>
+        <v>962.3148590053625</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G39" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>508.1659581184963</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.008892784821</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N39" t="n">
-        <v>1541.851827451147</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O39" t="n">
-        <v>2058.694762117472</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P39" t="n">
-        <v>2058.694762117472</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q39" t="n">
         <v>2058.694762117472</v>
@@ -7286,19 +7286,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U39" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7356,28 +7356,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U40" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V40" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W40" t="n">
-        <v>224.1971997769844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X40" t="n">
-        <v>41.76508562960203</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1678.033101815612</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="C41" t="n">
-        <v>1267.908511128882</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="D41" t="n">
-        <v>1267.908511128882</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="E41" t="n">
-        <v>853.568295645779</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F41" t="n">
-        <v>432.5378835994666</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L41" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M41" t="n">
-        <v>1075.450954962252</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N41" t="n">
-        <v>1592.293889628578</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O41" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P41" t="n">
         <v>2088.254281480102</v>
@@ -7441,22 +7441,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T41" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U41" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V41" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W41" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X41" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="Y41" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G42" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
-        <v>234.5779431922353</v>
+        <v>187.8810127971431</v>
       </c>
       <c r="K42" t="n">
-        <v>234.5779431922353</v>
+        <v>187.8810127971431</v>
       </c>
       <c r="L42" t="n">
-        <v>751.4208778585604</v>
+        <v>187.8810127971431</v>
       </c>
       <c r="M42" t="n">
-        <v>1192.007362767163</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="N42" t="n">
-        <v>1192.007362767163</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O42" t="n">
-        <v>1708.850297433488</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P42" t="n">
-        <v>1708.850297433488</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q42" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7526,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>503.2668642681101</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C43" t="n">
-        <v>503.2668642681101</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D43" t="n">
-        <v>503.2668642681101</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E43" t="n">
-        <v>503.2668642681101</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F43" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G43" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H43" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L43" t="n">
         <v>470.2970630371111</v>
@@ -7593,28 +7593,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U43" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V43" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W43" t="n">
-        <v>503.2668642681101</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X43" t="n">
-        <v>503.2668642681101</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y43" t="n">
-        <v>503.2668642681101</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1373.612066528674</v>
+        <v>1542.752026609714</v>
       </c>
       <c r="C44" t="n">
-        <v>963.4874758419446</v>
+        <v>1132.627435922984</v>
       </c>
       <c r="D44" t="n">
-        <v>963.4874758419446</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E44" t="n">
-        <v>549.1472603588413</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F44" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G44" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H44" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L44" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M44" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N44" t="n">
-        <v>1075.450954962252</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O44" t="n">
-        <v>1592.293889628578</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P44" t="n">
         <v>2088.254281480102</v>
@@ -7675,25 +7675,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T44" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U44" t="n">
-        <v>1783.833246193164</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V44" t="n">
-        <v>1783.833246193164</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W44" t="n">
-        <v>1783.833246193164</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X44" t="n">
-        <v>1783.833246193164</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y44" t="n">
-        <v>1783.833246193164</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G45" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
         <v>234.5779431922353</v>
@@ -7733,22 +7733,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M45" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N45" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O45" t="n">
-        <v>1192.007362767163</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P45" t="n">
-        <v>1708.850297433488</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q45" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R45" t="n">
         <v>2088.254281480102</v>
@@ -7763,16 +7763,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X45" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1648.189235160388</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C46" t="n">
-        <v>1477.095862722104</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D46" t="n">
-        <v>1317.601218045014</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E46" t="n">
-        <v>1156.690402913334</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F46" t="n">
-        <v>992.0592770239252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G46" t="n">
-        <v>824.8088859494686</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H46" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M46" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N46" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P46" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q46" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>2075.43768057773</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>2075.43768057773</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1835.888941554432</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U46" t="n">
-        <v>1835.888941554432</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V46" t="n">
-        <v>1835.888941554432</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W46" t="n">
-        <v>1835.888941554432</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X46" t="n">
-        <v>1835.888941554432</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y46" t="n">
-        <v>1835.888941554432</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>228.888951090043</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>296.4405581451824</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8057,7 +8057,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
@@ -8066,7 +8066,7 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>333.9158139669643</v>
       </c>
       <c r="N3" t="n">
         <v>575.2569637637755</v>
@@ -8075,10 +8075,10 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>171.9933802602897</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8218,28 +8218,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>496.3946935832878</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,16 +8297,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>333.9158139669643</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>391.1981341283843</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O8" t="n">
-        <v>269.754811036119</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>562.8045877599699</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
@@ -8546,10 +8546,10 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>564.4415429491207</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328704</v>
+        <v>339.7024893595824</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>553.1935596277625</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,16 +8771,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>501.1513772538824</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>67.6779873391382</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
         <v>579.8150493700256</v>
@@ -8792,7 +8792,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L14" t="n">
-        <v>555.4891820648243</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958087</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9011,13 +9011,13 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>67.6779873391382</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
@@ -9026,10 +9026,10 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>394.6973592394729</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>496.3946935832878</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
-        <v>553.1935596277625</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>557.0846165901664</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>549.1401736751963</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L20" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>92.91229075661933</v>
+        <v>296.1630732760185</v>
       </c>
       <c r="O20" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P20" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q20" t="n">
         <v>90.03380439915205</v>
@@ -9479,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>175.4852242574857</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>394.6973592394729</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9637,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L23" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>614.9758611266448</v>
+        <v>296.1630732760186</v>
       </c>
       <c r="O23" t="n">
-        <v>553.1935596277623</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P23" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q23" t="n">
         <v>90.03380439915205</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>266.9965351298658</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>576.3232053728292</v>
+        <v>560.9496989519245</v>
       </c>
       <c r="Q24" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L26" t="n">
-        <v>272.0504334731805</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>615.2533459958086</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P26" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q26" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,22 +9959,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>329.5449236222964</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700255</v>
+        <v>502.7883324430334</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>555.489182064824</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M29" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266448</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O29" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P29" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10196,19 +10196,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>559.8834573428702</v>
+        <v>559.8834573428708</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
@@ -10351,25 +10351,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270709</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
-        <v>296.4405581451822</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P32" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>527.2265162238735</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M33" t="n">
-        <v>579.6278541084429</v>
+        <v>425.4271248393445</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,22 +10588,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L35" t="n">
-        <v>496.3946935832874</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P35" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
@@ -10667,22 +10667,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M36" t="n">
-        <v>579.6278541084429</v>
+        <v>425.427124839344</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>360.4692655976433</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266448</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O38" t="n">
-        <v>269.7548110361188</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P38" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,25 +10904,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>332.4660540393955</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M39" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>394.6973592394729</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L41" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
-        <v>614.9758611266448</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O41" t="n">
-        <v>594.1598684051006</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q41" t="n">
         <v>90.03380439915205</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>198.9610844237788</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>502.6011371814505</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L44" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P44" t="n">
-        <v>594.6194560602016</v>
+        <v>337.8664545776218</v>
       </c>
       <c r="Q44" t="n">
         <v>90.03380439915205</v>
@@ -11381,7 +11381,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11390,16 +11390,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>564.4415429491204</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P45" t="n">
-        <v>576.3232053728292</v>
+        <v>68.74422894819196</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22549,13 +22549,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>396.2678730121402</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22564,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>243.0949440010052</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -22609,13 +22609,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -22713,19 +22713,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>23.12472639190918</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>72.74517369164079</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>401.9723718946288</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>43.71087832835393</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22947,22 +22947,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23001,13 +23001,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>208.4496141103835</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>55.35263051300493</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>133.2688311445896</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23035,10 +23035,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>146.9968341779463</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -23181,25 +23181,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23235,19 +23235,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>209.7999067317757</v>
+        <v>194.7158398879886</v>
       </c>
     </row>
     <row r="11">
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>12.07625401595521</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>376.5237582279941</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23326,7 +23326,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>36.52143824765136</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>17.77593127592968</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>166.2529679543383</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>136.1393767501156</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23703,22 +23703,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>194.7158398879886</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>12.07625401595521</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>54.86260686223289</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>92.10878562006171</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>60.88908134984253</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,25 +23971,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>60.84505633119484</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>134.5761086991687</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24037,7 +24037,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>8.893130557884717</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.893130557884632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>17.77593127593013</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>13.0765198219031</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>137.4342356413306</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24417,19 +24417,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>17.77593127593013</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.17355936056066</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
@@ -24496,22 +24496,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24654,13 +24654,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>4.874559219806486</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13.55422061770423</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>114.1219065716112</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24748,7 +24748,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>208.6070786176236</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="32">
@@ -24925,10 +24925,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -24985,7 +24985,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.584269729476546</v>
+        <v>2.380833627933157</v>
       </c>
     </row>
     <row r="33">
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.89313055788412</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="35">
@@ -25159,13 +25159,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>233.5386398303134</v>
       </c>
       <c r="E35" t="n">
-        <v>390.2983828659826</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -25207,7 +25207,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
@@ -25219,10 +25219,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.06664624006515</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="38">
@@ -25393,25 +25393,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>390.7834181300997</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>206.8819751760622</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.72880037088828</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>17.77593127593025</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -25681,16 +25681,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -25797,16 +25797,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>134.9699070214187</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>147.4824850715437</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>173.0974811016262</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>71.73155624800641</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>561983.6508619788</v>
+        <v>561983.6508619786</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>561983.6508619789</v>
+        <v>561983.6508619786</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>561983.6508619788</v>
+        <v>561983.6508619786</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>561983.6508619789</v>
+        <v>561983.6508619788</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>561983.6508619786</v>
+        <v>561983.6508619788</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>561983.6508619786</v>
+        <v>561983.6508619788</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>561983.6508619788</v>
+        <v>561983.6508619786</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>561983.6508619788</v>
+        <v>561983.6508619786</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>561983.6508619786</v>
+        <v>561983.6508619788</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>561983.6508619788</v>
+        <v>561983.6508619786</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>561983.6508619788</v>
+        <v>561983.6508619786</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152207.2113488842</v>
+        <v>152207.2113488843</v>
       </c>
       <c r="C2" t="n">
         <v>152207.2113488841</v>
@@ -26334,28 +26334,28 @@
         <v>152207.2113488842</v>
       </c>
       <c r="I2" t="n">
+        <v>152207.2113488842</v>
+      </c>
+      <c r="J2" t="n">
+        <v>152207.2113488842</v>
+      </c>
+      <c r="K2" t="n">
+        <v>152207.2113488842</v>
+      </c>
+      <c r="L2" t="n">
+        <v>152207.2113488842</v>
+      </c>
+      <c r="M2" t="n">
+        <v>152207.2113488842</v>
+      </c>
+      <c r="N2" t="n">
+        <v>152207.2113488843</v>
+      </c>
+      <c r="O2" t="n">
+        <v>152207.2113488842</v>
+      </c>
+      <c r="P2" t="n">
         <v>152207.2113488841</v>
-      </c>
-      <c r="J2" t="n">
-        <v>152207.2113488841</v>
-      </c>
-      <c r="K2" t="n">
-        <v>152207.2113488841</v>
-      </c>
-      <c r="L2" t="n">
-        <v>152207.2113488841</v>
-      </c>
-      <c r="M2" t="n">
-        <v>152207.2113488841</v>
-      </c>
-      <c r="N2" t="n">
-        <v>152207.2113488842</v>
-      </c>
-      <c r="O2" t="n">
-        <v>152207.2113488841</v>
-      </c>
-      <c r="P2" t="n">
-        <v>152207.2113488842</v>
       </c>
     </row>
     <row r="3">
@@ -26423,7 +26423,7 @@
         <v>48718.21749193841</v>
       </c>
       <c r="D4" t="n">
-        <v>48718.21749193842</v>
+        <v>48718.21749193841</v>
       </c>
       <c r="E4" t="n">
         <v>48718.21749193841</v>
@@ -26432,7 +26432,7 @@
         <v>48718.21749193842</v>
       </c>
       <c r="G4" t="n">
-        <v>48718.21749193842</v>
+        <v>48718.21749193841</v>
       </c>
       <c r="H4" t="n">
         <v>48718.21749193841</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136835.5811146658</v>
+        <v>-137513.1099740598</v>
       </c>
       <c r="C6" t="n">
-        <v>38119.92877844817</v>
+        <v>37442.39991905409</v>
       </c>
       <c r="D6" t="n">
-        <v>38119.92877844822</v>
+        <v>37442.39991905421</v>
       </c>
       <c r="E6" t="n">
-        <v>71747.52877844822</v>
+        <v>71069.99991905417</v>
       </c>
       <c r="F6" t="n">
-        <v>71747.52877844825</v>
+        <v>71069.9999190542</v>
       </c>
       <c r="G6" t="n">
-        <v>71747.52877844819</v>
+        <v>71069.99991905417</v>
       </c>
       <c r="H6" t="n">
-        <v>71747.52877844824</v>
+        <v>71069.9999190542</v>
       </c>
       <c r="I6" t="n">
-        <v>71747.52877844818</v>
+        <v>71069.99991905414</v>
       </c>
       <c r="J6" t="n">
-        <v>-64847.2720274468</v>
+        <v>-65524.80088684076</v>
       </c>
       <c r="K6" t="n">
-        <v>71747.52877844815</v>
+        <v>71069.99991905417</v>
       </c>
       <c r="L6" t="n">
-        <v>71747.52877844815</v>
+        <v>71069.99991905417</v>
       </c>
       <c r="M6" t="n">
-        <v>71747.52877844815</v>
+        <v>71069.9999190542</v>
       </c>
       <c r="N6" t="n">
-        <v>71747.52877844824</v>
+        <v>71069.99991905426</v>
       </c>
       <c r="O6" t="n">
-        <v>71747.52877844818</v>
+        <v>71069.99991905417</v>
       </c>
       <c r="P6" t="n">
-        <v>71747.52877844824</v>
+        <v>71069.99991905411</v>
       </c>
     </row>
   </sheetData>
@@ -26807,31 +26807,31 @@
         <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
     </row>
   </sheetData>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>135.5987266329976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>276.3515302285468</v>
       </c>
       <c r="N3" t="n">
         <v>522.0635703700256</v>
@@ -34795,10 +34795,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>117.7337452574859</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34938,28 +34938,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>400.909295520443</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>276.3515302285469</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>338.0047407346343</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O8" t="n">
-        <v>176.5650354103359</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>506.6900639491208</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L11" t="n">
+        <v>244.2170912967376</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M11" t="n">
+      <c r="P11" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N11" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O11" t="n">
-        <v>460.0037840019794</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>14.48459394538821</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>522.0635703700256</v>
@@ -35512,7 +35512,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L14" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P14" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N14" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O14" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35731,13 +35731,13 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>14.48459394538821</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,10 +35746,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M17" t="n">
+      <c r="P17" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N17" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O17" t="n">
-        <v>460.0037840019794</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>500.9700927793173</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N18" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O18" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>203.2507825193992</v>
       </c>
       <c r="O20" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>117.7337452574857</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="R21" t="n">
         <v>29.85810036629282</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L23" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>522.0635703700254</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="O23" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>209.2450561298658</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="Q24" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L26" t="n">
-        <v>176.5650354103356</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q26" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>276.3515302285464</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700254</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>29.85810036629282</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700254</v>
+        <v>400.909295520443</v>
       </c>
       <c r="O29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
         <v>40.9663087773382</v>
@@ -36916,19 +36916,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>506.6900639491203</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
@@ -37071,25 +37071,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L32" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M32" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="N32" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>203.2507825193991</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>471.1119924130245</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O33" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L35" t="n">
-        <v>400.9092955204426</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q35" t="n">
         <v>324.4050573689818</v>
@@ -37387,22 +37387,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="N36" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>306.2096305948396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700254</v>
+        <v>400.909295520443</v>
       </c>
       <c r="O38" t="n">
-        <v>176.5650354103356</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>276.3515302285465</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="R39" t="n">
         <v>29.85810036629282</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L41" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O41" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>147.5918456237788</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>445.0368534430331</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O44" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P44" t="n">
-        <v>500.9700927793174</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>506.6900639491204</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P45" t="n">
-        <v>522.0635703700254</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
